--- a/tables/excel/Test.xlsx
+++ b/tables/excel/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UsersSpace\Projects\Git\tabtool\tables\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarof\Projects\Git\tabtool\tables\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="129">
   <si>
     <t>define</t>
   </si>
@@ -1135,13 +1135,71 @@
   <si>
     <t>key3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arg3</t>
+  </si>
+  <si>
+    <t>Arg4</t>
+  </si>
+  <si>
+    <t>Arg5</t>
+  </si>
+  <si>
+    <t>Arg6</t>
+  </si>
+  <si>
+    <t>Arg7</t>
+  </si>
+  <si>
+    <t>Arg8</t>
+  </si>
+  <si>
+    <t>Arg9</t>
+  </si>
+  <si>
+    <t>Arg10</t>
+  </si>
+  <si>
+    <t>Arg11</t>
+  </si>
+  <si>
+    <t>Arg12</t>
+  </si>
+  <si>
+    <t>Arg13</t>
+  </si>
+  <si>
+    <t>Arg14</t>
+  </si>
+  <si>
+    <t>Arg15</t>
+  </si>
+  <si>
+    <t>Arg16</t>
+  </si>
+  <si>
+    <t>Arg17</t>
+  </si>
+  <si>
+    <t>Arg18</t>
+  </si>
+  <si>
+    <t>Arg19</t>
+  </si>
+  <si>
+    <t>Arg20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,13 +1228,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1191,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,6 +1277,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,7 +1300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1512,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1605,7 @@
     <col min="14" max="14" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1628,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1709,62 @@
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1676,8 +1804,62 @@
       <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>2</v>
@@ -1757,7 +1939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>3</v>
@@ -1796,7 +1978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>4</v>
@@ -1835,7 +2017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>5</v>
@@ -1874,7 +2056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>6</v>
@@ -1913,7 +2095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>7</v>
@@ -1952,7 +2134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>8</v>
@@ -1991,7 +2173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>9</v>
@@ -2030,7 +2212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>10</v>
@@ -2069,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>11</v>
@@ -2108,7 +2290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>12</v>

--- a/tables/excel/Test.xlsx
+++ b/tables/excel/Test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="131">
   <si>
     <t>define</t>
   </si>
@@ -1193,6 +1193,14 @@
   </si>
   <si>
     <t>Arg20</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1586,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1599,13 +1607,13 @@
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" customWidth="1"/>
+    <col min="7" max="8" width="16.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,14 +1629,15 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1650,26 +1659,27 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,26 +1701,26 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>110</v>
@@ -1763,8 +1773,11 @@
       <c r="AE3" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1786,80 +1799,83 @@
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1881,11 +1897,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>31</v>
@@ -1896,11 +1912,14 @@
       <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>2</v>
@@ -1920,11 +1939,11 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>35</v>
@@ -1935,11 +1954,14 @@
       <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>3</v>
@@ -1959,11 +1981,11 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>39</v>
@@ -1974,11 +1996,14 @@
       <c r="L7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>4</v>
@@ -1998,11 +2023,11 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>43</v>
@@ -2013,11 +2038,14 @@
       <c r="L8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>5</v>
@@ -2037,11 +2065,11 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>47</v>
@@ -2052,11 +2080,14 @@
       <c r="L9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>6</v>
@@ -2076,11 +2107,11 @@
       <c r="G10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>51</v>
@@ -2091,11 +2122,14 @@
       <c r="L10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>7</v>
@@ -2115,11 +2149,11 @@
       <c r="G11" s="1">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>55</v>
@@ -2130,11 +2164,14 @@
       <c r="L11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>8</v>
@@ -2154,11 +2191,11 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>59</v>
@@ -2169,11 +2206,14 @@
       <c r="L12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>9</v>
@@ -2193,11 +2233,11 @@
       <c r="G13" s="1">
         <v>9</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>63</v>
@@ -2208,11 +2248,14 @@
       <c r="L13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>10</v>
@@ -2232,11 +2275,11 @@
       <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>67</v>
@@ -2247,11 +2290,14 @@
       <c r="L14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>11</v>
@@ -2271,11 +2317,11 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>71</v>
@@ -2286,11 +2332,14 @@
       <c r="L15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>12</v>
@@ -2310,11 +2359,11 @@
       <c r="G16" s="1">
         <v>12</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>75</v>
@@ -2325,11 +2374,14 @@
       <c r="L16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>13</v>
@@ -2349,11 +2401,11 @@
       <c r="G17" s="1">
         <v>13</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>79</v>
@@ -2364,11 +2416,14 @@
       <c r="L17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>14</v>
@@ -2388,11 +2443,11 @@
       <c r="G18" s="1">
         <v>14</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>83</v>
@@ -2403,11 +2458,14 @@
       <c r="L18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>15</v>
@@ -2427,11 +2485,11 @@
       <c r="G19" s="1">
         <v>15</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>87</v>
@@ -2442,11 +2500,14 @@
       <c r="L19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>16</v>
@@ -2466,11 +2527,11 @@
       <c r="G20" s="1">
         <v>16</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>91</v>
@@ -2481,11 +2542,14 @@
       <c r="L20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>17</v>
@@ -2505,11 +2569,11 @@
       <c r="G21" s="1">
         <v>17</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>95</v>
@@ -2520,11 +2584,14 @@
       <c r="L21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>18</v>
@@ -2544,11 +2611,11 @@
       <c r="G22" s="1">
         <v>18</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>99</v>
@@ -2559,11 +2626,14 @@
       <c r="L22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>19</v>
@@ -2583,11 +2653,11 @@
       <c r="G23" s="3">
         <v>19</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>103</v>
@@ -2598,11 +2668,14 @@
       <c r="L23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2615,6 +2688,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
